--- a/test_youtube/done/gssspotted.xlsx
+++ b/test_youtube/done/gssspotted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46995D-78E2-45E6-AA41-6F0A851EE575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05754D27-3372-4610-819F-0191ADD5544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>19.29-19.30</t>
   </si>
   <si>
-    <t>19-31-19.36</t>
-  </si>
-  <si>
     <t>19.37-19.39</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>30.49-30.55</t>
+  </si>
+  <si>
+    <t>19.31-19.36</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>0</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>0</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>0</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>0</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>0</v>
@@ -788,15 +788,15 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>0</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>0</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>0</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>3</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>1</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>2</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>2</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>2</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>2</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>1</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>2</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>0</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>0</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>4</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>0</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>0</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>3</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>3</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>2</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>2</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>1</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>3</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>3</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>1</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>3</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>0</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>3</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>3</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>3</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>2</v>
